--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/仓储物流-事业部.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/仓储物流-事业部.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\报表系统\确认过的报表模板\确认过的报表模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\space\ideaSpace\report\java\erui-parent\erui-boss-web\src\main\webapp\WEB-INF\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD3C1C-9E7A-4168-AD54-676510730ED5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>时间</t>
   </si>
@@ -36,14 +40,26 @@
     <t>备注</t>
   </si>
   <si>
-    <t>钻井装备事业部</t>
+    <t>单据类型</t>
+  </si>
+  <si>
+    <t>钻装</t>
+  </si>
+  <si>
+    <t>出库</t>
+  </si>
+  <si>
+    <t>油增</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,14 +68,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +97,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,21 +133,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,55 +439,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>43024</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>43108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>43108</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>99</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:F3">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
